--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BL$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BL$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
   <si>
     <t>Username</t>
   </si>
@@ -203,16 +203,19 @@
     <t>Client PO Date</t>
   </si>
   <si>
-    <t>Client PO Amount</t>
-  </si>
-  <si>
-    <t>Shareestviaemailto</t>
+    <t>client po amount</t>
+  </si>
+  <si>
+    <t>Creditnote amount</t>
+  </si>
+  <si>
+    <t>Credit note reason</t>
   </si>
   <si>
     <t>tanmay.nayak</t>
   </si>
   <si>
-    <t>Citi5bank$1234</t>
+    <t>Citi5bank$12345</t>
   </si>
   <si>
     <t>PLN/0315/24-25</t>
@@ -251,7 +254,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Campauto050</t>
+    <t>CampasanitySanity230625-11</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -305,7 +308,10 @@
     <t>profit</t>
   </si>
   <si>
-    <t>Campauto051</t>
+    <t>CampasanitySanity230625-12</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
   <si>
     <t>100002</t>
@@ -344,10 +350,7 @@
     <t>4214555</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Akshay</t>
+    <t>Change in POS</t>
   </si>
 </sst>
 </file>
@@ -1283,13 +1286,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BT2"/>
+  <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -1326,7 +1329,7 @@
     <col min="54" max="54" width="25.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72">
+    <row r="1" spans="1:73">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1543,67 +1546,70 @@
       <c r="BT1" t="s">
         <v>58</v>
       </c>
+      <c r="BU1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:72">
+    <row r="2" spans="1:73">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="I2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U2">
         <v>1</v>
@@ -1612,112 +1618,112 @@
         <v>20</v>
       </c>
       <c r="W2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="AF2">
         <v>1</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AI2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="AK2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN2">
         <v>1</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AQ2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AR2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="AU2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AW2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AX2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AY2">
         <v>1</v>
       </c>
-      <c r="AZ2">
-        <v>19</v>
+      <c r="AZ2" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="BD2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BE2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BG2">
         <v>2</v>
@@ -1726,44 +1732,265 @@
         <v>100</v>
       </c>
       <c r="BI2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="BJ2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="BK2">
         <v>20</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="BM2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BN2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="BO2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>105</v>
+        <v>81</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:72">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>13</v>
+      </c>
+      <c r="O3">
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <v>15</v>
+      </c>
+      <c r="Q3">
+        <v>16</v>
+      </c>
+      <c r="R3">
+        <v>17</v>
+      </c>
+      <c r="S3">
+        <v>18</v>
+      </c>
+      <c r="T3">
+        <v>19</v>
+      </c>
+      <c r="U3">
+        <v>20</v>
+      </c>
+      <c r="V3">
+        <v>21</v>
+      </c>
+      <c r="W3">
+        <v>22</v>
+      </c>
+      <c r="X3">
+        <v>23</v>
+      </c>
+      <c r="Y3">
+        <v>24</v>
+      </c>
+      <c r="Z3">
+        <v>25</v>
+      </c>
+      <c r="AA3">
+        <v>26</v>
+      </c>
+      <c r="AB3">
+        <v>27</v>
+      </c>
+      <c r="AC3">
+        <v>28</v>
+      </c>
+      <c r="AD3">
+        <v>29</v>
+      </c>
+      <c r="AE3">
+        <v>30</v>
+      </c>
+      <c r="AF3">
+        <v>31</v>
+      </c>
+      <c r="AG3">
+        <v>32</v>
+      </c>
+      <c r="AH3">
+        <v>33</v>
+      </c>
+      <c r="AI3">
+        <v>34</v>
+      </c>
+      <c r="AJ3">
+        <v>35</v>
+      </c>
+      <c r="AK3">
+        <v>36</v>
+      </c>
+      <c r="AL3">
+        <v>37</v>
+      </c>
+      <c r="AM3">
+        <v>38</v>
+      </c>
+      <c r="AN3">
+        <v>39</v>
+      </c>
+      <c r="AO3">
+        <v>40</v>
+      </c>
+      <c r="AP3">
+        <v>41</v>
+      </c>
+      <c r="AQ3">
+        <v>42</v>
+      </c>
+      <c r="AR3">
+        <v>43</v>
+      </c>
+      <c r="AS3">
+        <v>44</v>
+      </c>
+      <c r="AT3">
+        <v>45</v>
+      </c>
+      <c r="AU3">
+        <v>46</v>
+      </c>
+      <c r="AV3">
+        <v>47</v>
+      </c>
+      <c r="AW3">
+        <v>48</v>
+      </c>
+      <c r="AX3">
+        <v>49</v>
+      </c>
+      <c r="AY3">
+        <v>50</v>
+      </c>
+      <c r="AZ3">
+        <v>51</v>
+      </c>
+      <c r="BA3">
+        <v>52</v>
+      </c>
+      <c r="BB3">
+        <v>53</v>
+      </c>
+      <c r="BC3">
+        <v>54</v>
+      </c>
+      <c r="BD3">
+        <v>55</v>
+      </c>
+      <c r="BE3">
+        <v>56</v>
+      </c>
+      <c r="BF3">
+        <v>57</v>
+      </c>
+      <c r="BG3">
+        <v>58</v>
+      </c>
+      <c r="BH3">
+        <v>59</v>
+      </c>
+      <c r="BI3">
+        <v>60</v>
+      </c>
+      <c r="BJ3">
+        <v>61</v>
+      </c>
+      <c r="BK3">
+        <v>62</v>
+      </c>
+      <c r="BL3">
+        <v>63</v>
+      </c>
+      <c r="BM3">
+        <v>64</v>
+      </c>
+      <c r="BN3">
+        <v>65</v>
+      </c>
+      <c r="BO3">
+        <v>66</v>
+      </c>
+      <c r="BP3">
+        <v>67</v>
+      </c>
+      <c r="BQ3">
+        <v>68</v>
+      </c>
+      <c r="BR3">
+        <v>69</v>
+      </c>
+      <c r="BS3">
+        <v>70</v>
+      </c>
+      <c r="BT3">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BL2" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BL3" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="106">
   <si>
     <t>Username</t>
   </si>
@@ -254,7 +254,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity230625-11</t>
+    <t>CampasanitySanity230625-13</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -306,9 +306,6 @@
   </si>
   <si>
     <t>profit</t>
-  </si>
-  <si>
-    <t>CampasanitySanity230625-12</t>
   </si>
   <si>
     <t>24</t>
@@ -1288,8 +1285,8 @@
   <sheetPr/>
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AV10" sqref="AV10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1699,28 +1696,28 @@
         <v>91</v>
       </c>
       <c r="AX2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AY2">
         <v>1</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>85</v>
       </c>
       <c r="BB2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" t="s">
         <v>95</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>96</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>97</v>
       </c>
       <c r="BF2" s="1" t="s">
         <v>76</v>
@@ -1732,34 +1729,34 @@
         <v>100</v>
       </c>
       <c r="BI2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>98</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>99</v>
       </c>
       <c r="BK2">
         <v>20</v>
       </c>
       <c r="BL2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM2" t="s">
         <v>100</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>101</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>102</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BQ2" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="BR2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BS2" s="1" t="s">
         <v>81</v>
@@ -1768,7 +1765,7 @@
         <v>81</v>
       </c>
       <c r="BU2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:72">

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
   <si>
     <t>Username</t>
   </si>
@@ -254,7 +254,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity230625-13</t>
+    <t>CampasanitySanity230625-14</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>profit</t>
+  </si>
+  <si>
+    <t>CampasanitySanity230625-15</t>
   </si>
   <si>
     <t>24</t>
@@ -1285,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="AV10" sqref="AV10"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1696,28 +1699,28 @@
         <v>91</v>
       </c>
       <c r="AX2" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="AY2">
         <v>1</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>85</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="BD2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BE2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BF2" s="1" t="s">
         <v>76</v>
@@ -1729,34 +1732,34 @@
         <v>100</v>
       </c>
       <c r="BI2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BJ2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BK2">
         <v>20</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BM2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BN2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BO2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BS2" s="1" t="s">
         <v>81</v>
@@ -1765,7 +1768,7 @@
         <v>81</v>
       </c>
       <c r="BU2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:72">

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -254,7 +254,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity230625-14</t>
+    <t>CampasanitySanity230625-16</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity230625-15</t>
+    <t>CampasanitySanity230625-17</t>
   </si>
   <si>
     <t>24</t>
@@ -1288,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AV8" sqref="AV8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -254,7 +254,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity230625-16</t>
+    <t>CampasanitySanity230625-18</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity230625-17</t>
+    <t>CampasanitySanity230625-19</t>
   </si>
   <si>
     <t>24</t>
@@ -1288,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AV8" sqref="AV8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -254,7 +254,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity230625-18</t>
+    <t>CampasanitySanity230625-20</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity230625-19</t>
+    <t>CampasanitySanity230625-21</t>
   </si>
   <si>
     <t>24</t>
@@ -1288,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AU5" sqref="AU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -254,7 +254,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity230625-20</t>
+    <t>CampasanitySanity230625-23</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity230625-21</t>
+    <t>CampasanitySanity230625-24</t>
   </si>
   <si>
     <t>24</t>
@@ -1288,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AU5" sqref="AU5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -254,7 +254,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity230625-23</t>
+    <t>CampasanitySanity230625-25</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity230625-24</t>
+    <t>CampasanitySanity230625-26</t>
   </si>
   <si>
     <t>24</t>
@@ -1288,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV$1:AV$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
   <si>
     <t>Username</t>
   </si>
@@ -254,7 +254,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity230625-25</t>
+    <t>CampasanitySanity040725-02</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -287,18 +287,18 @@
     <t>CRM123</t>
   </si>
   <si>
+    <t>Estimate1</t>
+  </si>
+  <si>
+    <t>Header1</t>
+  </si>
+  <si>
+    <t>Footer1</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>Estimate1</t>
-  </si>
-  <si>
-    <t>Header1</t>
-  </si>
-  <si>
-    <t>Footer1</t>
-  </si>
-  <si>
     <t>10000</t>
   </si>
   <si>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity230625-26</t>
+    <t>CampasanitySanity040725-03</t>
   </si>
   <si>
     <t>24</t>
@@ -332,9 +332,6 @@
     <t>asd</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Estimate2</t>
   </si>
   <si>
@@ -350,7 +347,13 @@
     <t>4214555</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>Change in POS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1026,6 +1029,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1286,13 +1296,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BU3"/>
+  <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="AV1" sqref="AV$1:AV$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -1675,19 +1685,19 @@
         <v>65</v>
       </c>
       <c r="AP2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>85</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>86</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>87</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>89</v>
@@ -1708,7 +1718,7 @@
         <v>93</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="BB2" s="1" t="s">
         <v>94</v>
@@ -1741,25 +1751,25 @@
         <v>20</v>
       </c>
       <c r="BL2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM2" t="s">
         <v>100</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>101</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>102</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="BS2" s="1" t="s">
         <v>81</v>
@@ -1987,6 +1997,11 @@
       </c>
       <c r="BT3">
         <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="47:47">
+      <c r="AU6" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -254,7 +254,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity040725-02</t>
+    <t>CampasanitySanity070725-02</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity040725-03</t>
+    <t>CampasanitySanity070725-01</t>
   </si>
   <si>
     <t>24</t>
@@ -1298,8 +1298,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AU17" sqref="AU17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -254,7 +254,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity070725-02</t>
+    <t>CampasanitySanity070725-19</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity070725-01</t>
+    <t>CampasanitySanity070725-20</t>
   </si>
   <si>
     <t>24</t>
@@ -1298,8 +1298,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AU17" sqref="AU17"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -254,7 +254,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity070725-19</t>
+    <t>CampasanitySanity080725-12</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity070725-20</t>
+    <t>CampasanitySanity080725-13</t>
   </si>
   <si>
     <t>24</t>
@@ -1298,8 +1298,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
   <si>
     <t>Username</t>
   </si>
@@ -227,6 +227,9 @@
     <t>998361</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>500</t>
   </si>
   <si>
@@ -254,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity080725-12</t>
+    <t>CampasanitySanity11725-00</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -263,9 +266,6 @@
     <t>998363</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>VIDEO</t>
   </si>
   <si>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity080725-13</t>
+    <t>CampasanitySanity110725-01</t>
   </si>
   <si>
     <t>24</t>
@@ -1029,13 +1029,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1298,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AU6" sqref="AU6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -1579,20 +1572,20 @@
       <c r="F2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G2">
-        <v>1</v>
+      <c r="G2" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>64</v>
@@ -1601,25 +1594,25 @@
         <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U2">
         <v>1</v>
@@ -1628,19 +1621,19 @@
         <v>20</v>
       </c>
       <c r="W2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="s">
         <v>78</v>
@@ -1652,7 +1645,7 @@
         <v>80</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF2">
         <v>1</v>
@@ -1670,7 +1663,7 @@
         <v>81</v>
       </c>
       <c r="AK2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL2" t="s">
         <v>84</v>
@@ -1682,10 +1675,10 @@
         <v>1</v>
       </c>
       <c r="AO2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="AQ2" t="s">
         <v>85</v>
@@ -1733,7 +1726,7 @@
         <v>97</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BG2">
         <v>2</v>
@@ -1751,7 +1744,7 @@
         <v>20</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="BM2" t="s">
         <v>100</v>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity11725-00</t>
+    <t>CampasanitySanity11725-02</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity110725-01</t>
+    <t>CampasanitySanity110725-03</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AU6" sqref="AU6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity11725-02</t>
+    <t>CampasanitySanity11725-04</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity110725-03</t>
+    <t>CampasanitySanity110725-05</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AW5" sqref="AW5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity11725-04</t>
+    <t>CampasanitySanity11725-07</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity110725-05</t>
+    <t>CampasanitySanity110725-06</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AW5" sqref="AW5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity11725-07</t>
+    <t>CampasanitySanity11725-08</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity110725-06</t>
+    <t>CampasanitySanity110725-09</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AU3" sqref="AU3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity11725-08</t>
+    <t>CampasanitySanity11725-10</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity110725-09</t>
+    <t>CampasanitySanity110725-11</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AU3" sqref="AU3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity11725-10</t>
+    <t>CampasanitySanity11725-12</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity110725-11</t>
+    <t>CampasanitySanity110725-13</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity11725-12</t>
+    <t>CampasanitySanity11725-14</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity110725-13</t>
+    <t>CampasanitySanity110725-15</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity11725-14</t>
+    <t>CampasanitySanity11725-16</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity110725-15</t>
+    <t>CampasanitySanity110725-17</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BA4" sqref="BA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity11725-16</t>
+    <t>CampasanitySanity11725-20</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity110725-17</t>
+    <t>CampasanitySanity110725-19</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BA4" sqref="BA4"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity11725-20</t>
+    <t>CampasanitySanity11725-22</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity110725-19</t>
+    <t>CampasanitySanity110725-23</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="AY4" sqref="AY4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity11725-22</t>
+    <t>CampasanitySanity11725-25</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity110725-23</t>
+    <t>CampasanitySanity110725-26</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="AY4" sqref="AY4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity11725-25</t>
+    <t>CampasanitySanity11725-28</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity110725-26</t>
+    <t>CampasanitySanity110725-27</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity11725-28</t>
+    <t>CampasanitySanity11725-29</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity110725-27</t>
+    <t>CampasanitySanity110725-30</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BD6" sqref="BD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity11725-29</t>
+    <t>CampasanitySanity11725-32</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity110725-30</t>
+    <t>CampasanitySanity110725-31</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BD6" sqref="BD6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity11725-32</t>
+    <t>CampasanitySanity11725-34</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity110725-31</t>
+    <t>CampasanitySanity110725-35</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="AY10" sqref="AY10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity11725-34</t>
+    <t>CampasanitySanity11725-37</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity110725-35</t>
+    <t>CampasanitySanity110725-36</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="AY10" sqref="AY10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity11725-37</t>
+    <t>CampasanitySanity11725-39</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity110725-36</t>
+    <t>CampasanitySanity110725-40</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="AY7" sqref="AY7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity11725-39</t>
+    <t>CampasanitySanity11725-42</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity110725-40</t>
+    <t>CampasanitySanity110725-41</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="AY7" sqref="AY7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity11725-42</t>
+    <t>CampasanitySanity130725-00</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity110725-41</t>
+    <t>CampasanitySanity130725-01</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="AW9" sqref="AW9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity130725-00</t>
+    <t>CampasanitySanity140725-02</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity130725-01</t>
+    <t>CampasanitySanity140725-03</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="AW9" sqref="AW9"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AU4" sqref="AU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity140725-02</t>
+    <t>CampasanitySanity140725-08</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity140725-03</t>
+    <t>CampasanitySanity140725-07</t>
   </si>
   <si>
     <t>24</t>
@@ -1292,7 +1292,7 @@
   <dimension ref="A1:BU6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AU4" sqref="AU4"/>
+      <selection activeCell="AU9" sqref="AU9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity140725-08</t>
+    <t>CampasanitySanity140725-10</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity140725-07</t>
+    <t>CampasanitySanity140725-09</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AU9" sqref="AU9"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity140725-10</t>
+    <t>CampasanitySanity170725-03</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity140725-09</t>
+    <t>CampasanitySanity170725-02</t>
   </si>
   <si>
     <t>24</t>
@@ -1292,7 +1292,7 @@
   <dimension ref="A1:BU6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity170725-03</t>
+    <t>CampasanitySanity200725-03</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity170725-02</t>
+    <t>CampasanitySanity200725-02</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity200725-03</t>
+    <t>CampasanitySanity200725-04</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity200725-02</t>
+    <t>CampasanitySanity200725-05</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="AY15" sqref="AY15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity200725-04</t>
+    <t>CampasanitySanity200725-06</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity200725-05</t>
+    <t>CampasanitySanity200725-07</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="AY15" sqref="AY15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity200725-06</t>
+    <t>CampasanitySanity200725-08</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity200725-07</t>
+    <t>CampasanitySanity200725-09</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="AY9" sqref="AY9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity200725-08</t>
+    <t>CampasanitySanity210725-15</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity200725-09</t>
+    <t>CampasanitySanity210725-16</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="AY9" sqref="AY9"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AU8" sqref="AU8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity210725-15</t>
+    <t>CampasanitySanity210725-17</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity210725-16</t>
+    <t>CampasanitySanity210725-18</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AU8" sqref="AU8"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity210725-17</t>
+    <t>CampasanitySanity210725-21</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity210725-18</t>
+    <t>CampasanitySanity210725-22</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="AW3" sqref="AW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity210725-21</t>
+    <t>CampasanitySanity210725-25</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity210725-22</t>
+    <t>CampasanitySanity210725-24</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="AW3" sqref="AW3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity210725-25</t>
+    <t>CampasanitySanity210725-31</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity210725-24</t>
+    <t>CampasanitySanity210725-30</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity210725-31</t>
+    <t>CampasanitySanity210725-33</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity210725-30</t>
+    <t>CampasanitySanity210725-34</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AU6" sqref="AU6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity210725-33</t>
+    <t>CampasanitySanity220725-03</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity210725-34</t>
+    <t>CampasanitySanity220725-04</t>
   </si>
   <si>
     <t>24</t>
@@ -347,7 +347,7 @@
     <t>4214555</t>
   </si>
   <si>
-    <t>22</t>
+    <t>29</t>
   </si>
   <si>
     <t>Change in POS</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AU6" sqref="AU6"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AV10" sqref="AV10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity220725-03</t>
+    <t>CampasanitySanity230725-07</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity220725-04</t>
+    <t>CampasanitySanity230725-08</t>
   </si>
   <si>
     <t>24</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AV10" sqref="AV10"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AU3" sqref="AU3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="107">
   <si>
     <t>Username</t>
   </si>
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity230725-07</t>
+    <t>CampasanitySanity310725-28</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity230725-08</t>
+    <t>CampasanitySanity310725-29</t>
   </si>
   <si>
     <t>24</t>
@@ -345,9 +345,6 @@
   </si>
   <si>
     <t>4214555</t>
-  </si>
-  <si>
-    <t>29</t>
   </si>
   <si>
     <t>Change in POS</t>
@@ -1291,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AU3" sqref="AU3"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -1762,7 +1759,7 @@
         <v>104</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="BS2" s="1" t="s">
         <v>81</v>
@@ -1771,7 +1768,7 @@
         <v>81</v>
       </c>
       <c r="BU2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:72">
@@ -1994,7 +1991,7 @@
     </row>
     <row r="6" spans="47:47">
       <c r="AU6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity310725-28</t>
+    <t>CampasanitySanity010825-32</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity310725-29</t>
+    <t>CampasanitySanity010825-31</t>
   </si>
   <si>
     <t>24</t>
@@ -1288,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity010825-32</t>
+    <t>CampasanitySanity030825-32</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity010825-31</t>
+    <t>CampasanitySanity030825-31</t>
   </si>
   <si>
     <t>24</t>
@@ -1288,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity030825-32</t>
+    <t>CampasanitySanity030825-40</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity030825-31</t>
+    <t>CampasanitySanity030825-41</t>
   </si>
   <si>
     <t>24</t>
@@ -1288,7 +1288,7 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
       <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity030825-40</t>
+    <t>CampasanitySanity030825-45</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity030825-41</t>
+    <t>CampasanitySanity030825-44</t>
   </si>
   <si>
     <t>24</t>
@@ -1288,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity030825-45</t>
+    <t>CampasanitySanity040825-45</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity030825-44</t>
+    <t>CampasanitySanity040825-44</t>
   </si>
   <si>
     <t>24</t>
@@ -1288,7 +1288,7 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity040825-45</t>
+    <t>CampasanitySanity040825-47</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity040825-44</t>
+    <t>CampasanitySanity040825-48</t>
   </si>
   <si>
     <t>24</t>
@@ -1288,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity040825-47</t>
+    <t>CampasanitySanity040825-55</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity040825-48</t>
+    <t>CampasanitySanity040825-56</t>
   </si>
   <si>
     <t>24</t>
@@ -1288,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity040825-55</t>
+    <t>CampasanitySanity040825-61</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity040825-56</t>
+    <t>CampasanitySanity040825-62</t>
   </si>
   <si>
     <t>24</t>
@@ -1288,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity040825-61</t>
+    <t>CampasanitySanity040825-63</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity040825-62</t>
+    <t>CampasanitySanity040825-64</t>
   </si>
   <si>
     <t>24</t>
@@ -1288,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity040825-63</t>
+    <t>CampasanitySanity040825-67</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity040825-64</t>
+    <t>CampasanitySanity040825-66</t>
   </si>
   <si>
     <t>24</t>
@@ -1288,7 +1288,7 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity040825-67</t>
+    <t>CampasanitySanity050825-67</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity040825-66</t>
+    <t>CampasanitySanity050825-66</t>
   </si>
   <si>
     <t>24</t>
@@ -1288,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity050825-67</t>
+    <t>CampasanitySanity060825-00</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity050825-66</t>
+    <t>CampasanitySanity060825-01</t>
   </si>
   <si>
     <t>24</t>
@@ -1288,7 +1288,7 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
       <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -257,7 +257,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>CampasanitySanity060825-00</t>
+    <t>CampasanitySanity070825-00</t>
   </si>
   <si>
     <t>CRM1</t>
@@ -308,7 +308,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>CampasanitySanity060825-01</t>
+    <t>CampasanitySanity070825-01</t>
   </si>
   <si>
     <t>24</t>
@@ -1288,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
